--- a/data/trans_bre/P16B13-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B13-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,21%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 51,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,81; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 107,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,81; 0,0</t>
         </is>
       </c>
     </row>
@@ -689,27 +689,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>7,82</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 31,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 47,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,67; 50,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,72; 43,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,46; 35,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,79; 147,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 79,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,49; 54,75</t>
         </is>
       </c>
     </row>
@@ -929,27 +929,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,38%</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,03; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 15,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,03; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 17,69</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,92%</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,93; 10,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,17; 11,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 62,81</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,96; 6,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 12,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 11,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 6,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 14,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 12,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B13-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>34,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,15; 62,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,89; 164,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,79</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 43,51</t>
+          <t>-19,08; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 79,09</t>
+          <t>-19,08; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B13-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,82</t>
+          <t>0,0; 57,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,15; 62,42</t>
+          <t>13,04; 62,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 0,0</t>
+          <t>-26,92; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 107,31</t>
+          <t>0,0; 134,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,89; 164,99</t>
+          <t>14,94; 164,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 0,0</t>
+          <t>-26,92; 0,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 31,54</t>
+          <t>-3,57; 31,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 47,25</t>
+          <t>-3,53; 47,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 50,94</t>
+          <t>-24,31; 49,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 0,0</t>
+          <t>-18,94; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 35,09</t>
+          <t>-6,44; 37,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 147,63</t>
+          <t>-24,72; 107,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 0,0</t>
+          <t>-18,94; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 54,75</t>
+          <t>-6,44; 61,82</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,45</t>
+          <t>0,0; 30,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,03</t>
+          <t>0,0; 43,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 0,0</t>
+          <t>-19,53; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,07</t>
+          <t>0,0; 20,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 15,26</t>
+          <t>-7,78; 17,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 0,0</t>
+          <t>-19,53; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,11</t>
+          <t>0,0; 25,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 17,69</t>
+          <t>-7,79; 19,83</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 10,11</t>
+          <t>-18,12; 10,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,55</t>
+          <t>0,0; 40,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 11,27</t>
+          <t>-19,15; 11,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,81</t>
+          <t>0,0; 69,39</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 6,07</t>
+          <t>-6,12; 5,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,87; 12,5</t>
+          <t>2,12; 12,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 11,0</t>
+          <t>-2,29; 11,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,52</t>
+          <t>-6,2; 6,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,94; 14,53</t>
+          <t>2,21; 14,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 12,58</t>
+          <t>-2,28; 13,39</t>
         </is>
       </c>
     </row>
